--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.15/avg_0.003_scores.xlsx
@@ -154,10 +154,10 @@
     <t>clean</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>save</t>
@@ -1375,25 +1375,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.762114537444934</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L25">
         <v>173</v>
       </c>
       <c r="M25">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1635,25 +1635,25 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.6646153846153846</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="L35">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="M35">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1661,25 +1661,25 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.6526315789473685</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L36">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="M36">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="N36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="10:17">
